--- a/reverseprimer-v3_10.xlsx
+++ b/reverseprimer-v3_10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_10" sheetId="1" r:id="rId1"/>
@@ -28,361 +28,361 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R0865-CGACTCAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGACTCAGTTGTCTCGTGGGCTCGG</t>
+    <t>R0865-TACCATCATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACCATCATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R0866-TACTCAGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTCAGATGGTCTCGTGGGCTCGG</t>
+    <t>R0866-GTGCAACAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGCAACAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R0867-TTCCAAGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCCAAGTTGGTCTCGTGGGCTCGG</t>
+    <t>R0867-AAGTCACTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTCACTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R0868-GACTTCTGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTTCTGAGGTCTCGTGGGCTCGG</t>
+    <t>R0868-ACTCGAGCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCGAGCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R0869-TCAGTTCCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGTTCCACGTCTCGTGGGCTCGG</t>
+    <t>R0869-ACAGTCTCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGTCTCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R0870-AACGACCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGACCTCTGTCTCGTGGGCTCGG</t>
+    <t>R0870-GATCACTGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCACTGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R0871-CGTCGTTGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTCGTTGTAGTCTCGTGGGCTCGG</t>
+    <t>R0871-TTCTGCTTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCTGCTTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R0872-CAACCACTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACCACTTCGTCTCGTGGGCTCGG</t>
+    <t>R0872-GAAGAGACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGAGACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R0873-CTTGGTAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGGTAGAGGTCTCGTGGGCTCGG</t>
+    <t>R0873-ATCAGTCTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCAGTCTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R0874-ACAACTCGTG</t>
+    <t>R0874-CTGTACCTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGTACCTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>R0875-GTACATCGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACATCGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>R0876-ATGGAGACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGGAGACTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>R0877-ACGTAGGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTAGGTTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>R0878-CTTCGTCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTCGTCAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>R0879-GCATGACAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCATGACAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>R0880-TGTAGCTAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTAGCTAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>R0881-TGACAACGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACAACGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>R0882-ACATGAGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATGAGTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>R0883-TGTAGTCTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTAGTCTGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>R0884-TGACCTCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACCTCTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>R0885-GATGACCAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGACCAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>R0886-TCGTTGGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTTGGACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>R0887-AACAACCTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAACCTACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>R0888-AACCAGACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCAGACTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>R0889-TACTGTACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTGTACCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>R0890-ACAACTCGTG</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATACAACTCGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>R0875-AGATGTGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGATGTGGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>R0876-AACTCAAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTCAAGGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>R0877-ACTGAGCACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGAGCACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>R0878-AGAGTGAACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGTGAACCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>R0879-ATCCTAGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCTAGTCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>R0880-CTACTACAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACTACAGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>R0881-ACGATGAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGATGAGATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>R0882-GCATCTCCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCATCTCCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>R0883-TCAAGCACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAAGCACAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>R0884-TGACCACAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACCACAACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>R0885-GGAGTACCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAGTACCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>R0886-GTTCAGACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCAGACCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>R0887-ACACCTTCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACCTTCTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>R0888-CACTTCAAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACTTCAAGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>R0889-GTGATCACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGATCACACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>R0890-CAGGAGAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGGAGAGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R0891-GTACGTTCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACGTTCTCGTCTCGTGGGCTCGG</t>
+    <t>R0891-GATGACACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGACACGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R0892-GAGTACCTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTACCTGAGTCTCGTGGGCTCGG</t>
+    <t>R0892-TCAACCTTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAACCTTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R0893-ACCATGACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCATGACGAGTCTCGTGGGCTCGG</t>
+    <t>R0893-CTCACACCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCACACCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R0894-TTGGTCTACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGGTCTACCGTCTCGTGGGCTCGG</t>
+    <t>R0894-ACAGATGTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGATGTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>R0895-CAGTTGCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGTTGCTCAGTCTCGTGGGCTCGG</t>
+    <t>R0895-CTGAGACACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGAGACACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R0896-ACCTAGAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTAGAGGAGTCTCGTGGGCTCGG</t>
+    <t>R0896-CGTTCCAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTTCCAGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>R0897-AGGAGATCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGAGATCACGTCTCGTGGGCTCGG</t>
+    <t>R0897-TGGTTCAGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGTTCAGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>R0898-TCGATCCTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGATCCTAGGTCTCGTGGGCTCGG</t>
+    <t>R0898-GGAACTTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAACTTCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>R0899-CACTCCAACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACTCCAACAGTCTCGTGGGCTCGG</t>
+    <t>R0899-TAGTAGAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTAGAGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>R0900-GCATGCAAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCATGCAAGAGTCTCGTGGGCTCGG</t>
+    <t>R0900-CAGAGTGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGAGTGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>R0901-CTTCTGGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTCTGGAAGGTCTCGTGGGCTCGG</t>
+    <t>R0901-GCTACAGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTACAGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>R0902-AGTAGTGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTAGTGATCGTCTCGTGGGCTCGG</t>
+    <t>R0902-GGTACGAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTACGAGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>R0903-AGTCTTCTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCTTCTAGGTCTCGTGGGCTCGG</t>
+    <t>R0903-CGTACCTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTACCTCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>R0904-AGTCAAGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCAAGTCTGTCTCGTGGGCTCGG</t>
+    <t>R0904-TCTGAGAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGAGAGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D5</t>
@@ -397,109 +397,109 @@
     <t>D6</t>
   </si>
   <si>
-    <t>R0906-TCTGAGAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGAGAGTCGTCTCGTGGGCTCGG</t>
+    <t>R0906-TGAGACGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGACGTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>R0907-AGGATCCATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGATCCATGGTCTCGTGGGCTCGG</t>
+    <t>R0907-AGAGACTTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGACTTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>R0908-TGTGTACTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGTACTGGGTCTCGTGGGCTCGG</t>
+    <t>R0908-CTAGACTTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGACTTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>R0909-GATCGACCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCGACCTTGTCTCGTGGGCTCGG</t>
+    <t>R0909-TAGTCCAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTCCAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>R0910-AGTTGATCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTTGATCGAGTCTCGTGGGCTCGG</t>
+    <t>R0910-ATGTGTCATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGTGTCATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>R0911-GCTTCACGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTTCACGAAGTCTCGTGGGCTCGG</t>
+    <t>R0911-GACTAGAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTAGAGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>R0912-AACTGATGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTGATGCTGTCTCGTGGGCTCGG</t>
+    <t>R0912-TCTCTGGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCTGGATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>R0913-ACAGCATCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGCATCATGTCTCGTGGGCTCGG</t>
+    <t>R0913-ACCTGAAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTGAAGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>R0914-AGCATGACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCATGACACGTCTCGTGGGCTCGG</t>
+    <t>R0914-ATGCTCTACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGCTCTACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>R0915-TCGTGAACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTGAACGAGTCTCGTGGGCTCGG</t>
+    <t>R0915-GGAACAACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAACAACGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>R0916-CAGAAGGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGAAGGTAGGTCTCGTGGGCTCGG</t>
+    <t>R0916-AGAGAAGTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGAAGTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>R0917-CGTAGACAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTAGACAACGTCTCGTGGGCTCGG</t>
+    <t>R0917-CTAGAGTGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGAGTGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E6</t>
@@ -514,379 +514,379 @@
     <t>E7</t>
   </si>
   <si>
-    <t>R0919-CTGTGAAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGTGAAGGAGTCTCGTGGGCTCGG</t>
+    <t>R0919-CAAGTTGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGTTGACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>R0920-TCCACAGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCACAGAGTGTCTCGTGGGCTCGG</t>
+    <t>R0920-TCGTACGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTACGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>R0921-TGACTGACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACTGACCAGTCTCGTGGGCTCGG</t>
+    <t>R0921-AAGTGATGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTGATGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>R0922-GGAACTTCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAACTTCAAGTCTCGTGGGCTCGG</t>
+    <t>R0922-GTCTTGGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCTTGGAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>R0923-CCTGAACAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTGAACAGAGTCTCGTGGGCTCGG</t>
+    <t>R0923-AGAGTACAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGTACAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>R0924-TCCAACTGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCAACTGAGGTCTCGTGGGCTCGG</t>
+    <t>R0924-TTGGTCGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGGTCGTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>R0925-TACTTGGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTTGGTAGGTCTCGTGGGCTCGG</t>
+    <t>R0925-TAGTCCATCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTCCATCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>R0926-AGCTTCATCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTTCATCAGTCTCGTGGGCTCGG</t>
+    <t>R0926-GAGACGATGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGACGATGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>R0927-GTCAACCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCAACCTCTGTCTCGTGGGCTCGG</t>
+    <t>R0927-GTTCCTAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCCTAGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>R0928-TTGGATCAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGGATCAGGGTCTCGTGGGCTCGG</t>
+    <t>R0928-GCATGTCTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCATGTCTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>R0929-AAGCTGTACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCTGTACTGTCTCGTGGGCTCGG</t>
+    <t>R0929-ACAGACACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGACACTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>R0930-TGTGGTGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGGTGTTGGTCTCGTGGGCTCGG</t>
+    <t>R0930-AGAGTCCACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGTCCACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>R0931-GCAGTGAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCAGTGAGATGTCTCGTGGGCTCGG</t>
+    <t>R0931-TCTTGGTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTTGGTGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>R0932-GATGTCGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGTCGATCGTCTCGTGGGCTCGG</t>
+    <t>R0932-TGGTCGTCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGTCGTCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>R0933-ATGCTACATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGCTACATGGTCTCGTGGGCTCGG</t>
+    <t>R0933-TCTCCTTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCCTTCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>R0934-TGAGCTCACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGCTCACAGTCTCGTGGGCTCGG</t>
+    <t>R0934-TACTCTCGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTCTCGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>R0935-TAGACACCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGACACCTGGTCTCGTGGGCTCGG</t>
+    <t>R0935-AGCTCGAACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTCGAACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>R0936-AGGAGTGCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGAGTGCAAGTCTCGTGGGCTCGG</t>
+    <t>R0936-ACTCAGTTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCAGTTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>R0937-ACACCTTGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACCTTGAGGTCTCGTGGGCTCGG</t>
+    <t>R0937-AAGTAGTCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTAGTCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>R0938-TCACGTACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACGTACAAGTCTCGTGGGCTCGG</t>
+    <t>R0938-TGTTCTGCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTTCTGCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>R0939-ACGAGAACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGAGAACTTGTCTCGTGGGCTCGG</t>
+    <t>R0939-CACGAAGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACGAAGTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>R0940-TAGACAGGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGACAGGTAGTCTCGTGGGCTCGG</t>
+    <t>R0940-GGAGAGAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAGAGAGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>R0941-AAGTCGACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTCGACCAGTCTCGTGGGCTCGG</t>
+    <t>R0941-GTCATCTACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCATCTACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>R0942-TAGTCAAGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTCAAGCAGTCTCGTGGGCTCGG</t>
+    <t>R0942-ACAACAAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAACAAGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>R0943-GATGTCATCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGTCATCAGTCTCGTGGGCTCGG</t>
+    <t>R0943-GCATGGATGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCATGGATGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R0944-CAGTGCAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGTGCAGATGTCTCGTGGGCTCGG</t>
+    <t>R0944-CTGCATGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGCATGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R0945-AGATCGAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGATCGAGTCGTCTCGTGGGCTCGG</t>
+    <t>R0945-GAAGGTCACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGGTCACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R0946-ATGTGGACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGTGGACTTGTCTCGTGGGCTCGG</t>
+    <t>R0946-TCCATGAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCATGAGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R0947-ATGCTGCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGCTGCTCAGTCTCGTGGGCTCGG</t>
+    <t>R0947-GATGTCAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGTCAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R0948-GTGTCAACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTCAACGAGTCTCGTGGGCTCGG</t>
+    <t>R0948-ACAAGGACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAAGGACATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R0949-CAGATCTGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGATCTGATGTCTCGTGGGCTCGG</t>
+    <t>R0949-ATGGACTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGGACTGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R0950-ACTCCTCCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCCTCCTTGTCTCGTGGGCTCGG</t>
+    <t>R0950-AAGCATCACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCATCACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R0951-ACGTTCAACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTTCAACAGTCTCGTGGGCTCGG</t>
+    <t>R0951-ACAGTTCCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGTTCCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R0952-ACAACGATCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAACGATCCGTCTCGTGGGCTCGG</t>
+    <t>R0952-TCCTGGAAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTGGAAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R0953-ACCACGTTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCACGTTGAGTCTCGTGGGCTCGG</t>
+    <t>R0953-AGGTACCTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTACCTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R0954-ACAACGACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAACGACTAGTCTCGTGGGCTCGG</t>
+    <t>R0954-AACTGACCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTGACCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R0955-ACACCAGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACCAGTCTGTCTCGTGGGCTCGG</t>
+    <t>R0955-ACAAGCATCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAAGCATCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R0956-AAGAGACCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGAGACCAGGTCTCGTGGGCTCGG</t>
+    <t>R0956-TTCGAACTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCGAACTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R0957-TGTACAGGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTACAGGTGGTCTCGTGGGCTCGG</t>
+    <t>R0957-TGGAAGAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGAAGAGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R0958-CAAGTACAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGTACAGAGTCTCGTGGGCTCGG</t>
+    <t>R0958-AACATGGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACATGGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R0959-AGTGTAGACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGTAGACCGTCTCGTGGGCTCGG</t>
+    <t>R0959-GTAGGACAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGGACAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R0960-CAGTTCACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGTTCACAGGTCTCGTGGGCTCGG</t>
+    <t>R0960-AGTCTCTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCTCTCAAGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
